--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T20:25:30+00:00</t>
+    <t>2021-10-28T17:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$177</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5059" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6168" uniqueCount="280">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://moh.fhir.org/moh-hcim/StructureDefinition/bc-search-response-bundle</t>
+    <t>http://moh.fhir/bc-client/StructureDefinition/bc-search-response-bundle</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-28T17:05:20+00:00</t>
+    <t>2021-11-05T15:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -544,7 +544,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -829,14 +829,14 @@
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
   </si>
   <si>
-    <t>Patient</t>
+    <t>patient</t>
   </si>
   <si>
     <t xml:space="preserve">SubjectOfCare Client Resident
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://moh.fhir.org/moh-hcim/StructureDefinition/bc-patient}
+    <t xml:space="preserve">Patient {http://moh.fhir/bc-client/StructureDefinition/bc-patient}
 </t>
   </si>
   <si>
@@ -856,10 +856,10 @@
     <t>ClinicalDocument.recordTarget.patientRole</t>
   </si>
   <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters {http://moh.fhir.org/moh-hcim/StructureDefinition/BCMetadataParameters}
+    <t>parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters {http://moh.fhir/bc-client/StructureDefinition/bc-metadata-parameters}
 </t>
   </si>
   <si>
@@ -872,7 +872,10 @@
     <t>The parameters that may be used are defined by the OperationDefinition resource.</t>
   </si>
   <si>
-    <t>OperationOutcome</t>
+    <t>parametersRequest</t>
+  </si>
+  <si>
+    <t>operationOutcome</t>
   </si>
   <si>
     <t xml:space="preserve">OperationOutcome
@@ -1195,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM145"/>
+  <dimension ref="A1:AM177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1205,7 +1208,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.20703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -14291,18 +14294,20 @@
         <v>70</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M119" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>70</v>
@@ -14366,10 +14371,10 @@
         <v>70</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>70</v>
@@ -17133,23 +17138,25 @@
         <v>70</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B145" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="C145" t="s" s="2">
         <v>70</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F145" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>70</v>
@@ -17158,20 +17165,16 @@
         <v>80</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>70</v>
       </c>
@@ -17219,35 +17222,3565 @@
         <v>70</v>
       </c>
       <c r="AE145" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" hidden="true">
+      <c r="A147" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" hidden="true">
+      <c r="A148" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" hidden="true">
+      <c r="A149" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" hidden="true">
+      <c r="A151" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J151" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AF145" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI145" t="s" s="2">
+      <c r="K151" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" hidden="true">
+      <c r="A152" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P152" s="2"/>
+      <c r="Q152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AI152" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AJ145" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM145" t="s" s="2">
+      <c r="AJ152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" hidden="true">
+      <c r="A153" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F153" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" hidden="true">
+      <c r="A154" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N154" s="2"/>
+      <c r="O154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM154" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" hidden="true">
+      <c r="A155" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P155" s="2"/>
+      <c r="Q155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" hidden="true">
+      <c r="A156" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F156" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N156" s="2"/>
+      <c r="O156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P157" s="2"/>
+      <c r="Q157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" hidden="true">
+      <c r="A158" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F158" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P158" s="2"/>
+      <c r="Q158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM158" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" hidden="true">
+      <c r="A159" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P159" s="2"/>
+      <c r="Q159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" hidden="true">
+      <c r="A160" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F160" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N160" s="2"/>
+      <c r="O160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P160" s="2"/>
+      <c r="Q160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL160" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="161" hidden="true">
+      <c r="A161" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F161" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P161" s="2"/>
+      <c r="Q161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL161" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" hidden="true">
+      <c r="A162" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P162" s="2"/>
+      <c r="Q162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL162" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM162" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="163" hidden="true">
+      <c r="A163" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N163" s="2"/>
+      <c r="O163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P163" s="2"/>
+      <c r="Q163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL163" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM163" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" hidden="true">
+      <c r="A164" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P164" s="2"/>
+      <c r="Q164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL164" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM164" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" hidden="true">
+      <c r="A165" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F165" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P165" s="2"/>
+      <c r="Q165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF165" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG165" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL165" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM165" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="166" hidden="true">
+      <c r="A166" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P166" s="2"/>
+      <c r="Q166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL166" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM166" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="167" hidden="true">
+      <c r="A167" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P167" s="2"/>
+      <c r="Q167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL167" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM167" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="168" hidden="true">
+      <c r="A168" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P168" s="2"/>
+      <c r="Q168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL168" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM168" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" hidden="true">
+      <c r="A169" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P169" s="2"/>
+      <c r="Q169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL169" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="170" hidden="true">
+      <c r="A170" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N170" s="2"/>
+      <c r="O170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P170" s="2"/>
+      <c r="Q170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL170" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM170" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" hidden="true">
+      <c r="A171" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F171" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P171" s="2"/>
+      <c r="Q171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL171" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM171" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="172" hidden="true">
+      <c r="A172" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P172" s="2"/>
+      <c r="Q172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL172" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM172" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="173" hidden="true">
+      <c r="A173" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
+      <c r="O173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P173" s="2"/>
+      <c r="Q173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL173" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM173" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" hidden="true">
+      <c r="A174" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N174" s="2"/>
+      <c r="O174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P174" s="2"/>
+      <c r="Q174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM174" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" hidden="true">
+      <c r="A175" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N175" s="2"/>
+      <c r="O175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P175" s="2"/>
+      <c r="Q175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL175" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM175" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="176" hidden="true">
+      <c r="A176" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N176" s="2"/>
+      <c r="O176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P176" s="2"/>
+      <c r="Q176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL176" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM176" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177" hidden="true">
+      <c r="A177" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="P177" s="2"/>
+      <c r="Q177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="R177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AL177" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM177" t="s" s="2">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM145">
+  <autoFilter ref="A1:AM177">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17257,7 +20790,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI144">
+  <conditionalFormatting sqref="A2:AI176">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://moh.fhir/bc-client/StructureDefinition/bc-search-response-bundle</t>
+    <t>http://moh.fhir/bc-clientregistry/StructureDefinition/bc-search-response-bundle</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-05T15:02:58+00:00</t>
+    <t>2021-11-08T22:48:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -836,7 +836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://moh.fhir/bc-client/StructureDefinition/bc-patient}
+    <t xml:space="preserve">Patient {http://moh.fhir/bc-clientregistry/StructureDefinition/bc-patient}
 </t>
   </si>
   <si>
@@ -859,7 +859,7 @@
     <t>parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameters {http://moh.fhir/bc-client/StructureDefinition/bc-metadata-parameters}
+    <t xml:space="preserve">Parameters {http://moh.fhir/bc-clientregistry/StructureDefinition/bc-metadata-parameters}
 </t>
   </si>
   <si>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T22:48:39+00:00</t>
+    <t>2021-11-10T00:01:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T00:01:37+00:00</t>
+    <t>2021-11-10T17:08:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:08:38+00:00</t>
+    <t>2021-11-10T17:51:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:51:54+00:00</t>
+    <t>2021-11-10T18:31:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$145</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6174" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5065" uniqueCount="288">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T21:28:52+00:00</t>
+    <t>2021-11-17T22:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -885,13 +885,6 @@
   </si>
   <si>
     <t>The parameters that may be used are defined by the OperationDefinition resource.</t>
-  </si>
-  <si>
-    <t>parametersRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-request-metadata-parameters}
-</t>
   </si>
   <si>
     <t>operationOutcome</t>
@@ -1247,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM177"/>
+  <dimension ref="A1:AM145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1257,7 +1250,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.2109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -13669,7 +13662,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>84</v>
@@ -14349,13 +14342,13 @@
         <v>277</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -14417,13 +14410,13 @@
         <v>75</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>75</v>
@@ -17187,13 +17180,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
         <v>75</v>
       </c>
@@ -17205,7 +17196,7 @@
         <v>84</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>75</v>
@@ -17214,16 +17205,20 @@
         <v>85</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>173</v>
+        <v>284</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
       </c>
@@ -17271,19 +17266,19 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>75</v>
@@ -17295,3543 +17290,11 @@
         <v>75</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="146" hidden="true">
-      <c r="A146" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P146" s="2"/>
-      <c r="Q146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="147" hidden="true">
-      <c r="A147" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N147" s="2"/>
-      <c r="O147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P147" s="2"/>
-      <c r="Q147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="148" hidden="true">
-      <c r="A148" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F148" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P148" s="2"/>
-      <c r="Q148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="149" hidden="true">
-      <c r="A149" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P149" s="2"/>
-      <c r="Q149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="150" hidden="true">
-      <c r="A150" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B150" s="2"/>
-      <c r="C150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N150" s="2"/>
-      <c r="O150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P150" s="2"/>
-      <c r="Q150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="151" hidden="true">
-      <c r="A151" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N151" s="2"/>
-      <c r="O151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P151" s="2"/>
-      <c r="Q151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="152" hidden="true">
-      <c r="A152" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
-      <c r="O152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P152" s="2"/>
-      <c r="Q152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" hidden="true">
-      <c r="A153" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B153" s="2"/>
-      <c r="C153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F153" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
-      <c r="O153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P153" s="2"/>
-      <c r="Q153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK153" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="154" hidden="true">
-      <c r="A154" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N154" s="2"/>
-      <c r="O154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P154" s="2"/>
-      <c r="Q154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM154" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="155" hidden="true">
-      <c r="A155" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P155" s="2"/>
-      <c r="Q155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="156" hidden="true">
-      <c r="A156" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N156" s="2"/>
-      <c r="O156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P156" s="2"/>
-      <c r="Q156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="157" hidden="true">
-      <c r="A157" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N157" s="2"/>
-      <c r="O157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P157" s="2"/>
-      <c r="Q157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="158" hidden="true">
-      <c r="A158" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P158" s="2"/>
-      <c r="Q158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="159" hidden="true">
-      <c r="A159" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P159" s="2"/>
-      <c r="Q159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="160" hidden="true">
-      <c r="A160" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N160" s="2"/>
-      <c r="O160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="161" hidden="true">
-      <c r="A161" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="162" hidden="true">
-      <c r="A162" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P162" s="2"/>
-      <c r="Q162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM162" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="163" hidden="true">
-      <c r="A163" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N163" s="2"/>
-      <c r="O163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P163" s="2"/>
-      <c r="Q163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL163" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM163" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="164" hidden="true">
-      <c r="A164" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F164" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J164" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P164" s="2"/>
-      <c r="Q164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AF164" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG164" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI164" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL164" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="165" hidden="true">
-      <c r="A165" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F165" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J165" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K165" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P165" s="2"/>
-      <c r="Q165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AF165" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG165" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI165" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL165" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="166" hidden="true">
-      <c r="A166" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F166" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J166" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K166" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P166" s="2"/>
-      <c r="Q166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM166" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="167" hidden="true">
-      <c r="A167" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F167" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J167" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K167" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P167" s="2"/>
-      <c r="Q167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AF167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG167" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI167" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="168" hidden="true">
-      <c r="A168" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B168" s="2"/>
-      <c r="C168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F168" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J168" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P168" s="2"/>
-      <c r="Q168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG168" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH168" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AI168" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL168" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM168" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="169" hidden="true">
-      <c r="A169" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B169" s="2"/>
-      <c r="C169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F169" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J169" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K169" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P169" s="2"/>
-      <c r="Q169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL169" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="170" hidden="true">
-      <c r="A170" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J170" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K170" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N170" s="2"/>
-      <c r="O170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P170" s="2"/>
-      <c r="Q170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI170" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK170" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM170" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="171" hidden="true">
-      <c r="A171" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B171" s="2"/>
-      <c r="C171" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F171" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H171" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I171" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J171" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="K171" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P171" s="2"/>
-      <c r="Q171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM171" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="172" hidden="true">
-      <c r="A172" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B172" s="2"/>
-      <c r="C172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I172" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J172" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P172" s="2"/>
-      <c r="Q172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI172" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM172" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="173" hidden="true">
-      <c r="A173" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B173" s="2"/>
-      <c r="C173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F173" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J173" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P173" s="2"/>
-      <c r="Q173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI173" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL173" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM173" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="174" hidden="true">
-      <c r="A174" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B174" s="2"/>
-      <c r="C174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F174" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I174" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J174" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N174" s="2"/>
-      <c r="O174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P174" s="2"/>
-      <c r="Q174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL174" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="175" hidden="true">
-      <c r="A175" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F175" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N175" s="2"/>
-      <c r="O175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P175" s="2"/>
-      <c r="Q175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI175" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL175" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM175" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="176" hidden="true">
-      <c r="A176" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F176" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N176" s="2"/>
-      <c r="O176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P176" s="2"/>
-      <c r="Q176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM176" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="177" hidden="true">
-      <c r="A177" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F177" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I177" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J177" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P177" s="2"/>
-      <c r="Q177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG177" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI177" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL177" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM177" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM177">
+  <autoFilter ref="A1:AM145">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20841,7 +17304,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI176">
+  <conditionalFormatting sqref="A2:AI144">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T22:00:02+00:00</t>
+    <t>2021-11-26T18:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T18:59:02+00:00</t>
+    <t>2021-11-29T18:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:20:37+00:00</t>
+    <t>2021-11-29T18:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:24:57+00:00</t>
+    <t>2021-11-29T18:48:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:48:09+00:00</t>
+    <t>2021-11-30T19:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T19:25:31+00:00</t>
+    <t>2021-12-02T21:15:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5065" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="284">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T21:15:02+00:00</t>
+    <t>2021-12-09T00:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -568,7 +568,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource}
+    <t xml:space="preserve">type:resource}
 </t>
   </si>
   <si>
@@ -890,20 +890,8 @@
     <t>operationOutcome</t>
   </si>
   <si>
-    <t xml:space="preserve">OperationOutcome {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-operation-outcome}
+    <t xml:space="preserve">OperationOutcome
 </t>
-  </si>
-  <si>
-    <t>Information about the success/failure of an action</t>
-  </si>
-  <si>
-    <t>A collection of error, warning, or information messages that result from a system action.</t>
-  </si>
-  <si>
-    <t>Can result from the failure of a REST call or be part of the response message returned from a request message.</t>
-  </si>
-  <si>
-    <t>Grouping is handled through multiple repetitions from whatever context references the outcomes (no specific grouper required)</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1285,7 +1273,7 @@
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="119.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -14336,20 +14324,18 @@
         <v>75</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>277</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>75</v>
@@ -14410,13 +14396,13 @@
         <v>75</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>75</v>
@@ -17182,7 +17168,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17205,19 +17191,19 @@
         <v>85</v>
       </c>
       <c r="J145" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N145" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
@@ -17266,7 +17252,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T00:03:23+00:00</t>
+    <t>2021-12-09T17:37:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T17:37:25+00:00</t>
+    <t>2021-12-09T21:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T21:10:46+00:00</t>
+    <t>2021-12-10T17:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:02:58+00:00</t>
+    <t>2021-12-10T22:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:55:51+00:00</t>
+    <t>2021-12-13T17:09:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:09:25+00:00</t>
+    <t>2021-12-13T17:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:28:44+00:00</t>
+    <t>2021-12-13T18:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:05:39+00:00</t>
+    <t>2021-12-13T18:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:53:22+00:00</t>
+    <t>2022-01-13T21:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:54:20+00:00</t>
+    <t>2022-01-13T21:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:55:58+00:00</t>
+    <t>2022-01-13T22:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T22:56:00+00:00</t>
+    <t>2022-01-14T19:25:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T19:25:17+00:00</t>
+    <t>2022-02-14T21:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T21:23:32+00:00</t>
+    <t>2022-03-07T23:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,6 +847,9 @@
     <t>patient</t>
   </si>
   <si>
+    <t>Natching Patients.</t>
+  </si>
+  <si>
     <t xml:space="preserve">SubjectOfCare Client Resident
 </t>
   </si>
@@ -872,6 +875,9 @@
   </si>
   <si>
     <t>parameters</t>
+  </si>
+  <si>
+    <t>Metadata parameters</t>
   </si>
   <si>
     <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters}
@@ -6610,7 +6616,7 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>174</v>
@@ -7250,7 +7256,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7269,13 +7275,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7338,16 +7344,16 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -10113,7 +10119,7 @@
         <v>171</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -10138,7 +10144,7 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>174</v>
@@ -10797,16 +10803,16 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -13643,7 +13649,7 @@
         <v>171</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>75</v>
@@ -14327,7 +14333,7 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>191</v>
@@ -17168,7 +17174,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17191,19 +17197,19 @@
         <v>85</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>75</v>
@@ -17252,7 +17258,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$177</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="290">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BCSearchResponseBundle</t>
+    <t>SearchResponseBundle</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,7 +847,7 @@
     <t>patient</t>
   </si>
   <si>
-    <t>Natching Patients.</t>
+    <t>Matching Patients.</t>
   </si>
   <si>
     <t xml:space="preserve">SubjectOfCare Client Resident
@@ -877,7 +877,7 @@
     <t>parameters</t>
   </si>
   <si>
-    <t>Metadata parameters</t>
+    <t>Metadata parameters.</t>
   </si>
   <si>
     <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters}
@@ -896,7 +896,20 @@
     <t>operationOutcome</t>
   </si>
   <si>
+    <t>Messages and codes returned by HCIM.</t>
+  </si>
+  <si>
     <t xml:space="preserve">OperationOutcome
+</t>
+  </si>
+  <si>
+    <t>relatedPerson</t>
+  </si>
+  <si>
+    <t>Resource for Mother's PHN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelatedPerson
 </t>
   </si>
   <si>
@@ -1234,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM145"/>
+  <dimension ref="A1:AM177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13656,7 +13669,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>84</v>
@@ -13674,7 +13687,7 @@
         <v>142</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>174</v>
@@ -14333,7 +14346,7 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>191</v>
@@ -17172,11 +17185,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B145" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="C145" t="s" s="2">
         <v>75</v>
       </c>
@@ -17185,10 +17200,10 @@
         <v>76</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>75</v>
@@ -17197,20 +17212,16 @@
         <v>85</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>281</v>
+        <v>142</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>282</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>75</v>
       </c>
@@ -17258,35 +17269,3565 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI145" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147" hidden="true">
+      <c r="A147" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" hidden="true">
+      <c r="A148" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" hidden="true">
+      <c r="A149" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI149" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM145" t="s" s="2">
+      <c r="AJ149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" hidden="true">
+      <c r="A151" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" hidden="true">
+      <c r="A152" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F152" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I152" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J152" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K152" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L152" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P152" s="2"/>
+      <c r="Q152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF152" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG152" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH152" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AI152" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL152" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" hidden="true">
+      <c r="A153" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F153" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K153" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P153" s="2"/>
+      <c r="Q153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF153" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG153" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK153" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL153" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="154" hidden="true">
+      <c r="A154" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J154" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K154" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M154" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N154" s="2"/>
+      <c r="O154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P154" s="2"/>
+      <c r="Q154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF154" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG154" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI154" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK154" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL154" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM154" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="155" hidden="true">
+      <c r="A155" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I155" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J155" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K155" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P155" s="2"/>
+      <c r="Q155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF155" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI155" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK155" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL155" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" hidden="true">
+      <c r="A156" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F156" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N156" s="2"/>
+      <c r="O156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P156" s="2"/>
+      <c r="Q156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Y156" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F157" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P157" s="2"/>
+      <c r="Q157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="158" hidden="true">
+      <c r="A158" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F158" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P158" s="2"/>
+      <c r="Q158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM158" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="159" hidden="true">
+      <c r="A159" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F159" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P159" s="2"/>
+      <c r="Q159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" hidden="true">
+      <c r="A160" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N160" s="2"/>
+      <c r="O160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P160" s="2"/>
+      <c r="Q160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="161" hidden="true">
+      <c r="A161" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P161" s="2"/>
+      <c r="Q161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL161" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="162" hidden="true">
+      <c r="A162" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D162" s="2"/>
+      <c r="E162" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P162" s="2"/>
+      <c r="Q162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL162" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM162" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="163" hidden="true">
+      <c r="A163" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F163" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N163" s="2"/>
+      <c r="O163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P163" s="2"/>
+      <c r="Q163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL163" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM163" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="164" hidden="true">
+      <c r="A164" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F164" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P164" s="2"/>
+      <c r="Q164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL164" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM164" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165" hidden="true">
+      <c r="A165" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F165" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P165" s="2"/>
+      <c r="Q165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF165" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG165" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL165" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM165" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" hidden="true">
+      <c r="A166" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F166" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P166" s="2"/>
+      <c r="Q166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL166" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM166" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="167" hidden="true">
+      <c r="A167" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F167" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P167" s="2"/>
+      <c r="Q167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM167" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" hidden="true">
+      <c r="A168" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F168" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P168" s="2"/>
+      <c r="Q168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM168" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="169" hidden="true">
+      <c r="A169" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D169" s="2"/>
+      <c r="E169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F169" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L169" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P169" s="2"/>
+      <c r="Q169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK169" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL169" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="170" hidden="true">
+      <c r="A170" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N170" s="2"/>
+      <c r="O170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P170" s="2"/>
+      <c r="Q170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI170" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK170" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM170" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="171" hidden="true">
+      <c r="A171" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D171" s="2"/>
+      <c r="E171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P171" s="2"/>
+      <c r="Q171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM171" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="172" hidden="true">
+      <c r="A172" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D172" s="2"/>
+      <c r="E172" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F172" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P172" s="2"/>
+      <c r="Q172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AF172" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG172" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI172" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM172" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="173" hidden="true">
+      <c r="A173" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F173" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
+      <c r="O173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P173" s="2"/>
+      <c r="Q173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE173" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI173" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL173" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM173" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174" hidden="true">
+      <c r="A174" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F174" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M174" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N174" s="2"/>
+      <c r="O174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P174" s="2"/>
+      <c r="Q174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE174" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG174" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI174" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM174" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="175" hidden="true">
+      <c r="A175" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N175" s="2"/>
+      <c r="O175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P175" s="2"/>
+      <c r="Q175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL175" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM175" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176" hidden="true">
+      <c r="A176" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F176" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M176" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N176" s="2"/>
+      <c r="O176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P176" s="2"/>
+      <c r="Q176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE176" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF176" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG176" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL176" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM176" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="177" hidden="true">
+      <c r="A177" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F177" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L177" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M177" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P177" s="2"/>
+      <c r="Q177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE177" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF177" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG177" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI177" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL177" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM177" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM145">
+  <autoFilter ref="A1:AM177">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17296,7 +20837,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI144">
+  <conditionalFormatting sqref="A2:AI176">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -877,10 +877,10 @@
     <t>parameters</t>
   </si>
   <si>
-    <t>Metadata parameters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters}
+    <t>Metadata out parameters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-metadata-parameters-out}
 </t>
   </si>
   <si>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1256,44 +1256,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.21484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="94.51953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="94.5234375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="291">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -477,6 +477,10 @@
   </si>
   <si>
     <t>Bundle.link.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2547,13 +2551,13 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2604,7 +2608,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2622,7 +2626,7 @@
         <v>75</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -2633,11 +2637,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2656,16 +2660,16 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2715,7 +2719,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -2727,13 +2731,13 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2744,11 +2748,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2767,19 +2771,19 @@
         <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>75</v>
@@ -2828,7 +2832,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2840,7 +2844,7 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -2857,7 +2861,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2880,13 +2884,13 @@
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2937,7 +2941,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>84</v>
@@ -2966,7 +2970,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2992,10 +2996,10 @@
         <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3046,7 +3050,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>84</v>
@@ -3075,7 +3079,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3083,7 +3087,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>77</v>
@@ -3101,10 +3105,10 @@
         <v>142</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3143,19 +3147,19 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3167,7 +3171,7 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
@@ -3184,7 +3188,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3207,13 +3211,13 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3264,7 +3268,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3282,7 +3286,7 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3293,11 +3297,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3316,16 +3320,16 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3375,7 +3379,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3387,13 +3391,13 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3404,11 +3408,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3427,19 +3431,19 @@
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -3488,7 +3492,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -3500,7 +3504,7 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
@@ -3517,7 +3521,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3543,10 +3547,10 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3597,7 +3601,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -3626,7 +3630,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3652,13 +3656,13 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3708,7 +3712,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -3737,7 +3741,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3760,13 +3764,13 @@
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3817,7 +3821,7 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -3846,7 +3850,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3872,10 +3876,10 @@
         <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3926,7 +3930,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -3935,7 +3939,7 @@
         <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
@@ -3955,7 +3959,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3978,13 +3982,13 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4035,7 +4039,7 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4053,7 +4057,7 @@
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4064,11 +4068,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4087,16 +4091,16 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4146,7 +4150,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4158,13 +4162,13 @@
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4175,11 +4179,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4198,19 +4202,19 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -4259,7 +4263,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4271,7 +4275,7 @@
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>75</v>
@@ -4288,7 +4292,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4314,13 +4318,13 @@
         <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4349,10 +4353,10 @@
         <v>124</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4370,7 +4374,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4399,7 +4403,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4422,16 +4426,16 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4481,7 +4485,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4510,7 +4514,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4536,10 +4540,10 @@
         <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4590,7 +4594,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4599,7 +4603,7 @@
         <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -4619,7 +4623,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4642,13 +4646,13 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4699,7 +4703,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -4717,7 +4721,7 @@
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4728,11 +4732,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4751,16 +4755,16 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4810,7 +4814,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4822,13 +4826,13 @@
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4839,11 +4843,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4862,19 +4866,19 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
@@ -4923,7 +4927,7 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -4935,7 +4939,7 @@
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
@@ -4952,7 +4956,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4978,10 +4982,10 @@
         <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5011,10 +5015,10 @@
         <v>124</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
@@ -5032,7 +5036,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>84</v>
@@ -5061,7 +5065,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5087,13 +5091,13 @@
         <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5143,7 +5147,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>84</v>
@@ -5172,7 +5176,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5195,13 +5199,13 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5252,7 +5256,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5281,7 +5285,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5307,10 +5311,10 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5361,7 +5365,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5390,7 +5394,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5413,13 +5417,13 @@
         <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5470,7 +5474,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -5499,7 +5503,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5522,13 +5526,13 @@
         <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5579,7 +5583,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -5608,7 +5612,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5634,10 +5638,10 @@
         <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5688,7 +5692,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -5697,7 +5701,7 @@
         <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -5717,7 +5721,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5740,13 +5744,13 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5797,7 +5801,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -5815,7 +5819,7 @@
         <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -5826,11 +5830,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5849,16 +5853,16 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5908,7 +5912,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -5920,13 +5924,13 @@
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -5937,11 +5941,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5960,19 +5964,19 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>75</v>
@@ -6021,7 +6025,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6033,7 +6037,7 @@
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>75</v>
@@ -6050,7 +6054,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6073,13 +6077,13 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6130,7 +6134,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>84</v>
@@ -6159,7 +6163,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6185,10 +6189,10 @@
         <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6239,7 +6243,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6268,7 +6272,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6291,16 +6295,16 @@
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6350,7 +6354,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6379,7 +6383,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6405,13 +6409,13 @@
         <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6461,7 +6465,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -6490,7 +6494,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6513,16 +6517,16 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6572,7 +6576,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -6601,10 +6605,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
@@ -6629,10 +6633,10 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6683,7 +6687,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -6695,7 +6699,7 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -6712,7 +6716,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6735,13 +6739,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6792,7 +6796,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -6810,7 +6814,7 @@
         <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -6821,11 +6825,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6844,16 +6848,16 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6903,7 +6907,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -6915,13 +6919,13 @@
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -6932,11 +6936,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6955,19 +6959,19 @@
         <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
@@ -7016,7 +7020,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7028,7 +7032,7 @@
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
@@ -7045,7 +7049,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7071,10 +7075,10 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7125,7 +7129,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7154,7 +7158,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7180,13 +7184,13 @@
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7236,7 +7240,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -7265,11 +7269,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7288,13 +7292,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7345,7 +7349,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -7357,16 +7361,16 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -7374,7 +7378,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7400,10 +7404,10 @@
         <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7454,7 +7458,7 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -7463,7 +7467,7 @@
         <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
@@ -7483,7 +7487,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7506,13 +7510,13 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7563,7 +7567,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -7581,7 +7585,7 @@
         <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -7592,11 +7596,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7615,16 +7619,16 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7674,7 +7678,7 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -7686,13 +7690,13 @@
         <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -7703,11 +7707,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7726,19 +7730,19 @@
         <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>75</v>
@@ -7787,7 +7791,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -7799,7 +7803,7 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>75</v>
@@ -7816,7 +7820,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7842,13 +7846,13 @@
         <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7877,10 +7881,10 @@
         <v>124</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>75</v>
@@ -7898,7 +7902,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -7927,7 +7931,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7950,16 +7954,16 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8009,7 +8013,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8038,7 +8042,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8064,10 +8068,10 @@
         <v>142</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8118,7 +8122,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8127,7 +8131,7 @@
         <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
@@ -8147,7 +8151,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8170,13 +8174,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8227,7 +8231,7 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -8245,7 +8249,7 @@
         <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8256,11 +8260,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8279,16 +8283,16 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8338,7 +8342,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -8350,13 +8354,13 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8367,11 +8371,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8390,19 +8394,19 @@
         <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -8451,7 +8455,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -8463,7 +8467,7 @@
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>75</v>
@@ -8480,7 +8484,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8506,10 +8510,10 @@
         <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8539,10 +8543,10 @@
         <v>124</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>75</v>
@@ -8560,7 +8564,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>84</v>
@@ -8589,7 +8593,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8615,13 +8619,13 @@
         <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8671,7 +8675,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>84</v>
@@ -8700,7 +8704,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8723,13 +8727,13 @@
         <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8780,7 +8784,7 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -8809,7 +8813,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8835,10 +8839,10 @@
         <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8889,7 +8893,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -8918,7 +8922,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8941,13 +8945,13 @@
         <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8998,7 +9002,7 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9027,7 +9031,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9050,13 +9054,13 @@
         <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9107,7 +9111,7 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9136,7 +9140,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9162,10 +9166,10 @@
         <v>142</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9216,7 +9220,7 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -9225,7 +9229,7 @@
         <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
@@ -9245,7 +9249,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9268,13 +9272,13 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9325,7 +9329,7 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -9343,7 +9347,7 @@
         <v>75</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -9354,11 +9358,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9377,16 +9381,16 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9436,7 +9440,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -9448,13 +9452,13 @@
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
@@ -9465,11 +9469,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9488,19 +9492,19 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>75</v>
@@ -9549,7 +9553,7 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -9561,7 +9565,7 @@
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>75</v>
@@ -9578,7 +9582,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9601,13 +9605,13 @@
         <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9658,7 +9662,7 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>84</v>
@@ -9687,7 +9691,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9713,10 +9717,10 @@
         <v>98</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9767,7 +9771,7 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -9796,7 +9800,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9819,16 +9823,16 @@
         <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9878,7 +9882,7 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -9907,7 +9911,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9933,13 +9937,13 @@
         <v>129</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9989,7 +9993,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -10018,7 +10022,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10041,16 +10045,16 @@
         <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10100,7 +10104,7 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -10129,10 +10133,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -10157,10 +10161,10 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10211,7 +10215,7 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -10223,7 +10227,7 @@
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
@@ -10240,7 +10244,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10263,13 +10267,13 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10320,7 +10324,7 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
@@ -10338,7 +10342,7 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -10349,11 +10353,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10372,16 +10376,16 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10431,7 +10435,7 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -10443,13 +10447,13 @@
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -10460,11 +10464,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10483,19 +10487,19 @@
         <v>85</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>75</v>
@@ -10544,7 +10548,7 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -10556,7 +10560,7 @@
         <v>75</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>75</v>
@@ -10573,7 +10577,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10599,10 +10603,10 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10653,7 +10657,7 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -10682,7 +10686,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10708,13 +10712,13 @@
         <v>98</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10764,7 +10768,7 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -10793,7 +10797,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10816,16 +10820,16 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -10875,7 +10879,7 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -10890,10 +10894,10 @@
         <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>75</v>
@@ -10904,7 +10908,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10930,10 +10934,10 @@
         <v>142</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10984,7 +10988,7 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -10993,7 +10997,7 @@
         <v>84</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>96</v>
@@ -11013,7 +11017,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11036,13 +11040,13 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11093,7 +11097,7 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -11111,7 +11115,7 @@
         <v>75</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>75</v>
@@ -11122,11 +11126,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11145,16 +11149,16 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11204,7 +11208,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -11216,13 +11220,13 @@
         <v>75</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -11233,11 +11237,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11256,19 +11260,19 @@
         <v>85</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>75</v>
@@ -11317,7 +11321,7 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -11329,7 +11333,7 @@
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>75</v>
@@ -11346,7 +11350,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11372,13 +11376,13 @@
         <v>104</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11407,10 +11411,10 @@
         <v>124</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>75</v>
@@ -11428,7 +11432,7 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
@@ -11457,7 +11461,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11480,16 +11484,16 @@
         <v>85</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11539,7 +11543,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -11568,7 +11572,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11594,10 +11598,10 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11648,7 +11652,7 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
@@ -11657,7 +11661,7 @@
         <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>96</v>
@@ -11677,7 +11681,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11700,13 +11704,13 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11757,7 +11761,7 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
@@ -11775,7 +11779,7 @@
         <v>75</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>75</v>
@@ -11786,11 +11790,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11809,16 +11813,16 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11868,7 +11872,7 @@
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>76</v>
@@ -11880,13 +11884,13 @@
         <v>75</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>75</v>
@@ -11897,11 +11901,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -11920,19 +11924,19 @@
         <v>85</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>75</v>
@@ -11981,7 +11985,7 @@
         <v>75</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>76</v>
@@ -11993,7 +11997,7 @@
         <v>75</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>75</v>
@@ -12010,7 +12014,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12036,10 +12040,10 @@
         <v>104</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12069,10 +12073,10 @@
         <v>124</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>75</v>
@@ -12090,7 +12094,7 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>84</v>
@@ -12119,7 +12123,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12145,13 +12149,13 @@
         <v>98</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12201,7 +12205,7 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>84</v>
@@ -12230,7 +12234,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12253,13 +12257,13 @@
         <v>85</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12310,7 +12314,7 @@
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
@@ -12339,7 +12343,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12365,10 +12369,10 @@
         <v>129</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12419,7 +12423,7 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>76</v>
@@ -12448,7 +12452,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12471,13 +12475,13 @@
         <v>85</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12528,7 +12532,7 @@
         <v>75</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
@@ -12557,7 +12561,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12580,13 +12584,13 @@
         <v>85</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12637,7 +12641,7 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
@@ -12666,7 +12670,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12692,10 +12696,10 @@
         <v>142</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12746,7 +12750,7 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>76</v>
@@ -12755,7 +12759,7 @@
         <v>84</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>96</v>
@@ -12775,7 +12779,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12798,13 +12802,13 @@
         <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -12855,7 +12859,7 @@
         <v>75</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>76</v>
@@ -12873,7 +12877,7 @@
         <v>75</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>75</v>
@@ -12884,11 +12888,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -12907,16 +12911,16 @@
         <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -12966,7 +12970,7 @@
         <v>75</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>76</v>
@@ -12978,13 +12982,13 @@
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>75</v>
@@ -12995,11 +12999,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13018,19 +13022,19 @@
         <v>85</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>75</v>
@@ -13079,7 +13083,7 @@
         <v>75</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>76</v>
@@ -13091,7 +13095,7 @@
         <v>75</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>75</v>
@@ -13108,7 +13112,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13131,13 +13135,13 @@
         <v>85</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13188,7 +13192,7 @@
         <v>75</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>84</v>
@@ -13217,7 +13221,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13243,10 +13247,10 @@
         <v>98</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13297,7 +13301,7 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>76</v>
@@ -13326,7 +13330,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13349,16 +13353,16 @@
         <v>85</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13408,7 +13412,7 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
@@ -13437,7 +13441,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13463,13 +13467,13 @@
         <v>129</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13519,7 +13523,7 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
@@ -13548,7 +13552,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13571,16 +13575,16 @@
         <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13630,7 +13634,7 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
@@ -13659,10 +13663,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>75</v>
@@ -13687,10 +13691,10 @@
         <v>142</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13741,7 +13745,7 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>
@@ -13753,7 +13757,7 @@
         <v>75</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>75</v>
@@ -13770,7 +13774,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13793,13 +13797,13 @@
         <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -13850,7 +13854,7 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>76</v>
@@ -13868,7 +13872,7 @@
         <v>75</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>75</v>
@@ -13879,11 +13883,11 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -13902,16 +13906,16 @@
         <v>75</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -13961,7 +13965,7 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>76</v>
@@ -13973,13 +13977,13 @@
         <v>75</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>75</v>
@@ -13990,11 +13994,11 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14013,19 +14017,19 @@
         <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>75</v>
@@ -14074,7 +14078,7 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>76</v>
@@ -14086,7 +14090,7 @@
         <v>75</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>75</v>
@@ -14103,7 +14107,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14129,10 +14133,10 @@
         <v>75</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14183,7 +14187,7 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>76</v>
@@ -14212,7 +14216,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14238,13 +14242,13 @@
         <v>98</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14294,7 +14298,7 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>76</v>
@@ -14323,7 +14327,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14346,13 +14350,13 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14403,7 +14407,7 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>76</v>
@@ -14432,7 +14436,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14458,10 +14462,10 @@
         <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14512,7 +14516,7 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>76</v>
@@ -14521,7 +14525,7 @@
         <v>84</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>96</v>
@@ -14541,7 +14545,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14564,13 +14568,13 @@
         <v>75</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -14621,7 +14625,7 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>76</v>
@@ -14639,7 +14643,7 @@
         <v>75</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>75</v>
@@ -14650,11 +14654,11 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -14673,16 +14677,16 @@
         <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -14732,7 +14736,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>76</v>
@@ -14744,13 +14748,13 @@
         <v>75</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>75</v>
@@ -14761,11 +14765,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -14784,19 +14788,19 @@
         <v>85</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>75</v>
@@ -14845,7 +14849,7 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>76</v>
@@ -14857,7 +14861,7 @@
         <v>75</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>75</v>
@@ -14874,7 +14878,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14900,13 +14904,13 @@
         <v>104</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -14935,10 +14939,10 @@
         <v>124</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>75</v>
@@ -14956,7 +14960,7 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>76</v>
@@ -14985,7 +14989,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15008,16 +15012,16 @@
         <v>85</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -15067,7 +15071,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>76</v>
@@ -15096,7 +15100,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15122,10 +15126,10 @@
         <v>142</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15176,7 +15180,7 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>76</v>
@@ -15185,7 +15189,7 @@
         <v>84</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>96</v>
@@ -15205,7 +15209,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15228,13 +15232,13 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -15285,7 +15289,7 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>76</v>
@@ -15303,7 +15307,7 @@
         <v>75</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>75</v>
@@ -15314,11 +15318,11 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15337,16 +15341,16 @@
         <v>75</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -15396,7 +15400,7 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>76</v>
@@ -15408,13 +15412,13 @@
         <v>75</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>75</v>
@@ -15425,11 +15429,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15448,19 +15452,19 @@
         <v>85</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>75</v>
@@ -15509,7 +15513,7 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>76</v>
@@ -15521,7 +15525,7 @@
         <v>75</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>75</v>
@@ -15538,7 +15542,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15564,10 +15568,10 @@
         <v>104</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -15597,10 +15601,10 @@
         <v>124</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>75</v>
@@ -15618,7 +15622,7 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>84</v>
@@ -15647,7 +15651,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15673,13 +15677,13 @@
         <v>98</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -15729,7 +15733,7 @@
         <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>84</v>
@@ -15758,7 +15762,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15781,13 +15785,13 @@
         <v>85</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -15838,7 +15842,7 @@
         <v>75</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>76</v>
@@ -15867,7 +15871,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15893,10 +15897,10 @@
         <v>129</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -15947,7 +15951,7 @@
         <v>75</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>76</v>
@@ -15976,7 +15980,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15999,13 +16003,13 @@
         <v>85</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -16056,7 +16060,7 @@
         <v>75</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>76</v>
@@ -16085,7 +16089,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16108,13 +16112,13 @@
         <v>85</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -16165,7 +16169,7 @@
         <v>75</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>76</v>
@@ -16194,7 +16198,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16220,10 +16224,10 @@
         <v>142</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16274,7 +16278,7 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>76</v>
@@ -16283,7 +16287,7 @@
         <v>84</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>96</v>
@@ -16303,7 +16307,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16326,13 +16330,13 @@
         <v>75</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -16383,7 +16387,7 @@
         <v>75</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>76</v>
@@ -16401,7 +16405,7 @@
         <v>75</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>75</v>
@@ -16412,11 +16416,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16435,16 +16439,16 @@
         <v>75</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -16494,7 +16498,7 @@
         <v>75</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>76</v>
@@ -16506,13 +16510,13 @@
         <v>75</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>75</v>
@@ -16523,11 +16527,11 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16546,19 +16550,19 @@
         <v>85</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>75</v>
@@ -16607,7 +16611,7 @@
         <v>75</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>76</v>
@@ -16619,7 +16623,7 @@
         <v>75</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>75</v>
@@ -16636,7 +16640,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16659,13 +16663,13 @@
         <v>85</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -16716,7 +16720,7 @@
         <v>75</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>84</v>
@@ -16745,7 +16749,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16771,10 +16775,10 @@
         <v>98</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16825,7 +16829,7 @@
         <v>75</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>76</v>
@@ -16854,7 +16858,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16877,16 +16881,16 @@
         <v>85</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -16936,7 +16940,7 @@
         <v>75</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>76</v>
@@ -16965,7 +16969,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16991,13 +16995,13 @@
         <v>129</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
@@ -17047,7 +17051,7 @@
         <v>75</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>76</v>
@@ -17076,7 +17080,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17099,16 +17103,16 @@
         <v>85</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -17158,7 +17162,7 @@
         <v>75</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>76</v>
@@ -17187,10 +17191,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>75</v>
@@ -17215,10 +17219,10 @@
         <v>142</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -17269,7 +17273,7 @@
         <v>75</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>76</v>
@@ -17281,7 +17285,7 @@
         <v>75</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>75</v>
@@ -17298,7 +17302,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17321,13 +17325,13 @@
         <v>75</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17378,7 +17382,7 @@
         <v>75</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>76</v>
@@ -17396,7 +17400,7 @@
         <v>75</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>75</v>
@@ -17407,11 +17411,11 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -17430,16 +17434,16 @@
         <v>75</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
@@ -17489,7 +17493,7 @@
         <v>75</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>76</v>
@@ -17501,13 +17505,13 @@
         <v>75</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>75</v>
@@ -17518,11 +17522,11 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -17541,19 +17545,19 @@
         <v>85</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>75</v>
@@ -17602,7 +17606,7 @@
         <v>75</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>76</v>
@@ -17614,7 +17618,7 @@
         <v>75</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>75</v>
@@ -17631,7 +17635,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17657,10 +17661,10 @@
         <v>75</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -17711,7 +17715,7 @@
         <v>75</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>76</v>
@@ -17740,7 +17744,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -17766,13 +17770,13 @@
         <v>98</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -17822,7 +17826,7 @@
         <v>75</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>76</v>
@@ -17851,7 +17855,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -17874,13 +17878,13 @@
         <v>85</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -17931,7 +17935,7 @@
         <v>75</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>76</v>
@@ -17960,7 +17964,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -17986,10 +17990,10 @@
         <v>142</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18040,7 +18044,7 @@
         <v>75</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>76</v>
@@ -18049,7 +18053,7 @@
         <v>84</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>96</v>
@@ -18069,7 +18073,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -18092,13 +18096,13 @@
         <v>75</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -18149,7 +18153,7 @@
         <v>75</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>76</v>
@@ -18167,7 +18171,7 @@
         <v>75</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>75</v>
@@ -18178,11 +18182,11 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -18201,16 +18205,16 @@
         <v>75</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -18260,7 +18264,7 @@
         <v>75</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>76</v>
@@ -18272,13 +18276,13 @@
         <v>75</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>75</v>
@@ -18289,11 +18293,11 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -18312,19 +18316,19 @@
         <v>85</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>75</v>
@@ -18373,7 +18377,7 @@
         <v>75</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>76</v>
@@ -18385,7 +18389,7 @@
         <v>75</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>75</v>
@@ -18402,7 +18406,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -18428,13 +18432,13 @@
         <v>104</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -18463,10 +18467,10 @@
         <v>124</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>75</v>
@@ -18484,7 +18488,7 @@
         <v>75</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>76</v>
@@ -18513,7 +18517,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -18536,16 +18540,16 @@
         <v>85</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -18595,7 +18599,7 @@
         <v>75</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>76</v>
@@ -18624,7 +18628,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -18650,10 +18654,10 @@
         <v>142</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -18704,7 +18708,7 @@
         <v>75</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>76</v>
@@ -18713,7 +18717,7 @@
         <v>84</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>96</v>
@@ -18733,7 +18737,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -18756,13 +18760,13 @@
         <v>75</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -18813,7 +18817,7 @@
         <v>75</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>76</v>
@@ -18831,7 +18835,7 @@
         <v>75</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>75</v>
@@ -18842,11 +18846,11 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -18865,16 +18869,16 @@
         <v>75</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -18924,7 +18928,7 @@
         <v>75</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>76</v>
@@ -18936,13 +18940,13 @@
         <v>75</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>75</v>
@@ -18953,11 +18957,11 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -18976,19 +18980,19 @@
         <v>85</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>75</v>
@@ -19037,7 +19041,7 @@
         <v>75</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>76</v>
@@ -19049,7 +19053,7 @@
         <v>75</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>75</v>
@@ -19066,7 +19070,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19092,10 +19096,10 @@
         <v>104</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -19125,10 +19129,10 @@
         <v>124</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>75</v>
@@ -19146,7 +19150,7 @@
         <v>75</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>84</v>
@@ -19175,7 +19179,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19201,13 +19205,13 @@
         <v>98</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -19257,7 +19261,7 @@
         <v>75</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>84</v>
@@ -19286,7 +19290,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19309,13 +19313,13 @@
         <v>85</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -19366,7 +19370,7 @@
         <v>75</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>76</v>
@@ -19395,7 +19399,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19421,10 +19425,10 @@
         <v>129</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -19475,7 +19479,7 @@
         <v>75</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>76</v>
@@ -19504,7 +19508,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -19527,13 +19531,13 @@
         <v>85</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -19584,7 +19588,7 @@
         <v>75</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>76</v>
@@ -19613,7 +19617,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -19636,13 +19640,13 @@
         <v>85</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -19693,7 +19697,7 @@
         <v>75</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>76</v>
@@ -19722,7 +19726,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -19748,10 +19752,10 @@
         <v>142</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -19802,7 +19806,7 @@
         <v>75</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>76</v>
@@ -19811,7 +19815,7 @@
         <v>84</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>96</v>
@@ -19831,7 +19835,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -19854,13 +19858,13 @@
         <v>75</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -19911,7 +19915,7 @@
         <v>75</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>76</v>
@@ -19929,7 +19933,7 @@
         <v>75</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>75</v>
@@ -19940,11 +19944,11 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -19963,16 +19967,16 @@
         <v>75</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
@@ -20022,7 +20026,7 @@
         <v>75</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>76</v>
@@ -20034,13 +20038,13 @@
         <v>75</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>75</v>
@@ -20051,11 +20055,11 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -20074,19 +20078,19 @@
         <v>85</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>75</v>
@@ -20135,7 +20139,7 @@
         <v>75</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>76</v>
@@ -20147,7 +20151,7 @@
         <v>75</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>75</v>
@@ -20164,7 +20168,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20187,13 +20191,13 @@
         <v>85</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -20244,7 +20248,7 @@
         <v>75</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>84</v>
@@ -20273,7 +20277,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20299,10 +20303,10 @@
         <v>98</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20353,7 +20357,7 @@
         <v>75</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>76</v>
@@ -20382,7 +20386,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20405,16 +20409,16 @@
         <v>85</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
@@ -20464,7 +20468,7 @@
         <v>75</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>76</v>
@@ -20493,7 +20497,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20519,13 +20523,13 @@
         <v>129</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
@@ -20575,7 +20579,7 @@
         <v>75</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>76</v>
@@ -20604,7 +20608,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -20627,16 +20631,16 @@
         <v>85</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -20686,7 +20690,7 @@
         <v>75</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>76</v>
@@ -20715,7 +20719,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -20738,19 +20742,19 @@
         <v>85</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>75</v>
@@ -20799,7 +20803,7 @@
         <v>75</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -893,7 +893,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-name-use-1:Each type of allowed Name.use can only be used once. {name.where(use = 'nickname').count()&lt;=1 and name.where(use = 'usual').count()&lt;=1 and name.where(use = 'official').count()&lt;=1}invariant-address-type-1:Address.type, if both, must not include any other types of addresses, i.e. no postal and no physical. {address.where(type = 'both').count()&gt;=1 implies (address.where(type = 'physical').count()=0 and address.where(type = 'postal').count()=0)}invariant-address-type-2:Each Address.type, if Address.type is NOT both, must be present no more than once. {address.where(type = 'both').count()=0 implies (address.where(type = 'physical').count()&lt;=1 and address.where(type = 'postal').count()&lt;=1)}invariant-telecom-phone-use-1:Each type of allowed Telecom.use for phone systems can only be used once. {telecom.where(use = 'home' and system='phone').count()&lt;=1 and telecom.where(use = 'work' and system='phone').count()&lt;=1 and telecom.where(use = 'mobile' and system='phone').count()&lt;=1}invariant-telecom-email-use-1:Each type of allowed Telecom.use for email systems can only be used once. {telecom.where(use = 'home' and system='email').count()&lt;=1 and telecom.where(use = 'work' and system='email').count()&lt;=1 and telecom.where(use = 'mobile' and system='email').count()&lt;=1}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6349" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6349" uniqueCount="420">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -894,10 +894,6 @@
   </si>
   <si>
     <t>The Patient Profile is based upon the core FHIR Patient Resource</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -7917,16 +7913,16 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -7934,7 +7930,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>196</v>
@@ -8046,7 +8042,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>200</v>
@@ -8158,7 +8154,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>201</v>
@@ -8272,7 +8268,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>202</v>
@@ -8388,7 +8384,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>203</v>
@@ -8502,7 +8498,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>209</v>
@@ -8616,7 +8612,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>214</v>
@@ -8728,7 +8724,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>218</v>
@@ -8840,7 +8836,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>219</v>
@@ -8954,7 +8950,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>220</v>
@@ -9070,7 +9066,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>221</v>
@@ -9182,7 +9178,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>226</v>
@@ -9296,7 +9292,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>230</v>
@@ -9408,7 +9404,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>233</v>
@@ -9520,7 +9516,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>235</v>
@@ -9632,7 +9628,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>238</v>
@@ -9744,7 +9740,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>241</v>
@@ -9856,7 +9852,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>245</v>
@@ -9968,7 +9964,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>246</v>
@@ -10082,7 +10078,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>247</v>
@@ -10198,7 +10194,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>248</v>
@@ -10310,7 +10306,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>251</v>
@@ -10422,7 +10418,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>254</v>
@@ -10536,7 +10532,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>258</v>
@@ -10650,7 +10646,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>262</v>
@@ -10764,13 +10760,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>76</v>
@@ -10795,7 +10791,7 @@
         <v>144</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>177</v>
@@ -10878,7 +10874,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>182</v>
@@ -10990,7 +10986,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>183</v>
@@ -11104,7 +11100,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>184</v>
@@ -11220,7 +11216,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>185</v>
@@ -11332,7 +11328,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>188</v>
@@ -11446,7 +11442,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>192</v>
@@ -11472,16 +11468,16 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11560,7 +11556,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>196</v>
@@ -11672,7 +11668,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>200</v>
@@ -11784,7 +11780,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>201</v>
@@ -11898,7 +11894,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>202</v>
@@ -12014,7 +12010,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>203</v>
@@ -12128,7 +12124,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>209</v>
@@ -12242,7 +12238,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>214</v>
@@ -12354,7 +12350,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>218</v>
@@ -12466,7 +12462,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>219</v>
@@ -12580,7 +12576,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>220</v>
@@ -12696,7 +12692,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>221</v>
@@ -12808,7 +12804,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>226</v>
@@ -12922,7 +12918,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>230</v>
@@ -13034,7 +13030,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>233</v>
@@ -13146,7 +13142,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>235</v>
@@ -13258,7 +13254,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>238</v>
@@ -13370,7 +13366,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>241</v>
@@ -13482,7 +13478,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>245</v>
@@ -13594,7 +13590,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>246</v>
@@ -13708,7 +13704,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>247</v>
@@ -13824,7 +13820,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>248</v>
@@ -13936,7 +13932,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>251</v>
@@ -14048,7 +14044,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>254</v>
@@ -14162,7 +14158,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>258</v>
@@ -14276,7 +14272,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>262</v>
@@ -14390,13 +14386,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>76</v>
@@ -14421,7 +14417,7 @@
         <v>144</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>177</v>
@@ -14504,7 +14500,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>182</v>
@@ -14616,7 +14612,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>183</v>
@@ -14730,7 +14726,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>184</v>
@@ -14846,7 +14842,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>185</v>
@@ -14958,7 +14954,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>188</v>
@@ -15072,7 +15068,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>192</v>
@@ -15098,7 +15094,7 @@
         <v>87</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L119" t="s" s="2">
         <v>194</v>
@@ -15184,7 +15180,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>196</v>
@@ -15296,7 +15292,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>200</v>
@@ -15408,7 +15404,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>201</v>
@@ -15522,7 +15518,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>202</v>
@@ -15638,7 +15634,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>203</v>
@@ -15752,7 +15748,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>209</v>
@@ -15866,7 +15862,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>214</v>
@@ -15978,7 +15974,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>218</v>
@@ -16090,7 +16086,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>219</v>
@@ -16204,7 +16200,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>220</v>
@@ -16320,7 +16316,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>221</v>
@@ -16432,7 +16428,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>226</v>
@@ -16546,7 +16542,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>230</v>
@@ -16658,7 +16654,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>233</v>
@@ -16770,7 +16766,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>235</v>
@@ -16882,7 +16878,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>238</v>
@@ -16994,7 +16990,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>241</v>
@@ -17106,7 +17102,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>245</v>
@@ -17218,7 +17214,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>246</v>
@@ -17332,7 +17328,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>247</v>
@@ -17448,7 +17444,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>248</v>
@@ -17560,7 +17556,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>251</v>
@@ -17672,7 +17668,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>254</v>
@@ -17786,7 +17782,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>258</v>
@@ -17900,7 +17896,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>262</v>
@@ -18014,13 +18010,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>174</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>76</v>
@@ -18045,7 +18041,7 @@
         <v>144</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>177</v>
@@ -18128,7 +18124,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>182</v>
@@ -18240,7 +18236,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>183</v>
@@ -18354,7 +18350,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>184</v>
@@ -18470,7 +18466,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>185</v>
@@ -18582,7 +18578,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>188</v>
@@ -18696,7 +18692,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>192</v>
@@ -18722,7 +18718,7 @@
         <v>87</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L151" t="s" s="2">
         <v>194</v>
@@ -18808,7 +18804,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>196</v>
@@ -18920,7 +18916,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>200</v>
@@ -19032,7 +19028,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>201</v>
@@ -19146,7 +19142,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>202</v>
@@ -19262,7 +19258,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>203</v>
@@ -19376,7 +19372,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>209</v>
@@ -19490,7 +19486,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>214</v>
@@ -19602,7 +19598,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>218</v>
@@ -19714,7 +19710,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>219</v>
@@ -19828,7 +19824,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>220</v>
@@ -19944,7 +19940,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>221</v>
@@ -20056,7 +20052,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>226</v>
@@ -20170,7 +20166,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>230</v>
@@ -20282,7 +20278,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>233</v>
@@ -20394,7 +20390,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>235</v>
@@ -20506,7 +20502,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>238</v>
@@ -20618,7 +20614,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>241</v>
@@ -20730,7 +20726,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>245</v>
@@ -20842,7 +20838,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>246</v>
@@ -20956,7 +20952,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>247</v>
@@ -21072,7 +21068,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>248</v>
@@ -21184,7 +21180,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>251</v>
@@ -21296,7 +21292,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>254</v>
@@ -21410,7 +21406,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>258</v>
@@ -21524,7 +21520,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>262</v>
@@ -21638,10 +21634,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -21664,19 +21660,19 @@
         <v>87</v>
       </c>
       <c r="K177" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L177" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L177" t="s" s="2">
+      <c r="M177" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M177" t="s" s="2">
+      <c r="N177" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="N177" t="s" s="2">
+      <c r="O177" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>76</v>
@@ -21725,7 +21721,7 @@
         <v>76</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-search-response-bundle.xlsx
+++ b/StructureDefinition-bc-search-response-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
